--- a/examples/ex215.transient_solutions_superposition.xlsx
+++ b/examples/ex215.transient_solutions_superposition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CB5349-8C79-4433-BF56-302909F6C140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF934F5-2096-4908-B7C0-56C6673735E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{9FE607D8-6D61-49B9-A8F6-4E45CEAFA2D8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{9FE607D8-6D61-49B9-A8F6-4E45CEAFA2D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -239,7 +239,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -257,7 +257,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1283,7 +1283,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2163855"/>
@@ -1345,7 +1345,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2163023"/>
@@ -1393,7 +1393,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2025,9 +2025,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2065,7 +2065,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2171,7 +2171,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2328,13 +2328,13 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="23.23046875" customWidth="1"/>
-    <col min="23" max="23" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.19921875" customWidth="1"/>
+    <col min="23" max="23" width="11.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
         <v>2</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.45">
       <c r="F2" s="1"/>
       <c r="I2" t="s">
         <v>13</v>
@@ -2354,7 +2354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.45">
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.45">
       <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.45">
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>1.1E-4</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.45">
       <c r="F7" s="1"/>
       <c r="I7" t="s">
         <v>18</v>
@@ -2424,7 +2424,7 @@
         <v>1.1995261317333E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.45">
       <c r="I8" t="s">
         <v>19</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>1.3981067724445399E-4</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>1.7943270432268699E-4</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
         <v>0</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>2.58489002266205E-4</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <v>10</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>4.1622697544445802E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <v>45</v>
       </c>
@@ -2517,7 +2517,7 @@
       <c r="S12" s="3"/>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
         <v>55</v>
       </c>
@@ -2538,7 +2538,7 @@
       <c r="S13" s="3"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2550,7 +2550,7 @@
       <c r="S14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2562,7 +2562,7 @@
       <c r="S15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2574,7 +2574,7 @@
       <c r="S16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2586,7 +2586,7 @@
       <c r="S17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2598,7 +2598,7 @@
       <c r="S18" s="3"/>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2610,7 +2610,7 @@
       <c r="S19" s="3"/>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2622,7 +2622,7 @@
       <c r="S20" s="3"/>
       <c r="W20" s="3"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2634,7 +2634,7 @@
       <c r="S21" s="3"/>
       <c r="W21" s="3"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B22">
         <f>MAX(B10:B21)</f>
         <v>55</v>
@@ -2651,7 +2651,7 @@
       <c r="S22" s="3"/>
       <c r="W22" s="3"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.45">
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
       <c r="P23">
@@ -2660,7 +2660,7 @@
       <c r="S23" s="3"/>
       <c r="W23" s="3"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.45">
       <c r="F24" s="1" t="s">
         <v>7</v>
       </c>
@@ -2672,7 +2672,7 @@
       <c r="S24" s="3"/>
       <c r="W24" s="3"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.45">
       <c r="F25" t="s">
         <v>11</v>
       </c>
@@ -2688,7 +2688,7 @@
       <c r="S25" s="3"/>
       <c r="W25" s="3"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.45">
       <c r="F26" t="s">
         <v>12</v>
       </c>
@@ -2704,13 +2704,13 @@
       <c r="S26" s="3"/>
       <c r="W26" s="3"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.45">
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
       <c r="S27" s="3"/>
       <c r="W27" s="3"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.45">
       <c r="F28" t="s">
         <v>3</v>
       </c>
@@ -2723,7 +2723,7 @@
       <c r="S28" s="3"/>
       <c r="W28" s="3"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.45">
       <c r="F29" t="s">
         <v>4</v>
       </c>
@@ -2736,13 +2736,13 @@
       <c r="S29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.45">
       <c r="N30" s="2"/>
       <c r="O30" s="3"/>
       <c r="S30" s="3"/>
       <c r="W30" s="3"/>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.45">
       <c r="F31" t="s">
         <v>24</v>
       </c>
@@ -2755,7 +2755,7 @@
       <c r="S31" s="3"/>
       <c r="W31" s="3"/>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.45">
       <c r="F32" t="s">
         <v>25</v>
       </c>
@@ -2768,7 +2768,7 @@
       <c r="S32" s="3"/>
       <c r="W32" s="3"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
       <c r="F34" t="s">
         <v>26</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>[2.2471054979236,2.67248267357216,2.9101629529193,3.19136489477703,3.50119234765965,3.82775873680031,4.16343995220799,4.50389097851512,4.84678593083227,5.19091951417901,5.535677388855,5.88074903696006,6.22597816780542,6.57128628324753,6.91663399891458,7.26200156527048,7.60737908143553,7.95276158454457,18.166921539869,19.6701548440516,21.1753080715812,22.68138726371,24.1879477275852,25.6948306993333,27.2020689732837,28.7099056011787,30.2189345908622,31.7304368701821,33.2470660414416,34.7741045193502,36.3213346739375,37.9044800431597,39.5427601642364,41.2493424282542,43.0213724318892,38.1638917434435,37.4753090130182,36.7856494703399,36.0954655794159,35.4050506631485,34.7145836405832,34.0242176136963,33.3341557506451,32.6447518628578,31.9566849693841,31.2712921054138,30.5912151428042,29.9216458588266,29.2726463469795,28.6631784093648,28.1270799969225,27.7188134568717,19.9830472142392,18.8366669622478,17.6888828258341,16.540423232599,15.391601740771,14.2425093637988,13.0930708976849,11.9430006725529,10.7916362937752,9.63757471929652,8.47800381636169,7.30780018029341,6.11957143599928,4.90927648201927,3.69577229212482,2.54929377776656,1.58487749689653]</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
       <c r="F35" t="s">
         <v>27</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>[249.97517847267,249.970479756388,249.967854340022,249.964748183372,249.961325829328,249.957718576993,249.954010642288,249.950250020251,249.946462402608,249.942661103046,249.938852907563,249.935041246138,249.931227845158,249.927413571715,249.923598860848,249.91978393071,249.915968890666,249.912153795537,249.799328184671,249.782723469593,249.766097547041,249.749461396285,249.732819929401,249.716174900095,249.699525946121,249.682870382729,249.666201648509,249.649505594332,249.632752908506,249.615885241479,249.598794537192,249.581307113443,249.563210671226,249.544359763537,249.524785920117,249.578441651802,249.586047736642,249.593665715951,249.60128948721,249.608915810375,249.616542709106,249.624168492239,249.631790915578,249.639406070923,249.647006457828,249.654577307404,249.662089437533,249.669485499843,249.676654348451,249.68338653129,249.689308274354,249.693817986555,249.779267260472,249.791930176735,249.804608600306,249.817294484973,249.829984367171,249.842677241567,249.855373938864,249.868077614571,249.880795585499,249.893543349651,249.906351969844,249.919278039208,249.932403213918,249.94577213198,249.959176499261,249.971840500931,249.982493443169]</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="F37" t="s">
         <v>26</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>[9.7044111598007E-05,2.81882762850985E-04,5.02771357721348E-04,9.84915562521398E-04,2.04058091999779E-03,4.34734989896696E-03,9.36509660016192E-03,2.02212868001536E-02,4.35838481041247E-02,9.36103964943895E-02,0.200251616140496,0.426663894166452,0.905638486267129,1.91565203214424,4.03932087483198,8.49295435179425,17.8108272837351,37.2638108577095,37.2643863742888,37.2649440139015,37.2660266841417,37.2681099230639,37.2720749486654,37.2795199104152,37.293258687436,37.3180371038541,37.3613320242922,37.4335457963059,37.5453639011577,37.6962348200872,37.8396673241068,37.7958315084298,37.0582915548003,34.399832153005,27.0647160838766,27.0645736125387,27.0644058080181,27.0640446522276,27.0632714350272,27.0616236207835,27.0581261472799,27.0507293797151,27.0351359426019,27.0023565977589,26.9336269398276,26.7898508207809,26.4897041900639,25.8642576048234,24.5629643166437,21.8587823969611,16.2435378974683,4.58559989852722,4.58522475896933,4.58484507582127,4.58408915979306,4.58259403814835,4.57965959723435,4.57395327445425,4.56298127978106,4.54217893402471,4.50343834444918,4.43295804332249,4.30869085078532,4.09882237619728,3.76505450295252,3.27687744912595,2.63959956260443,1.92148288816666,1.2443087929004]</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
       <c r="F38" t="s">
         <v>27</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>[249.999998928051,249.999996886323,249.999994446388,249.999989120623,249.999977459743,249.999951979173,249.999896553143,249.999776635666,249.999518572814,249.99896597956,249.997788020648,249.995287070625,249.989996317281,249.978839707653,249.955381661617,249.90618682623,249.803261601824,249.588383945266,249.58837758811,249.588371428422,249.588359469247,249.58833645779,249.588292660117,249.58821042307,249.588058664539,249.587784962151,249.58730672646,249.586509053134,249.585273910348,249.583607390177,249.582023034738,249.582507245158,249.590654111486,249.620019454038,249.701043146137,249.701044719876,249.701046573445,249.701050562771,249.701059103729,249.701077305485,249.701115938577,249.701197643272,249.701369888378,249.701731969021,249.702491156823,249.704079307834,249.707394727517,249.714303410497,249.728677496158,249.758547889643,249.820573880385,249.949347463521,249.949351607312,249.949355801292,249.949364151141,249.949380666255,249.949413080089,249.94947611213,249.949597308784,249.949827091495,249.950255020047,249.951033545453,249.952406200862,249.954724408033,249.95841120796,249.963803611697,249.970842983231,249.978775300017,249.986255365074]</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>0</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B41" cm="1">
         <f t="array" ref="B41:B109">[1]!decode_json(G31)</f>
         <v>1.1E-4</v>
@@ -2850,7 +2850,7 @@
         <v>249.99999892805101</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>2.58489002266205E-4</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>249.999996886323</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>4.1622697544445802E-4</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>249.999994446388</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>7.3095545160153496E-4</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>249.99998912062301</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B45">
         <v>1.3589210055409101E-3</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>249.99997745974301</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B46">
         <v>2.6118763839337099E-3</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>249.99995197917301</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B47">
         <v>5.1118497827851899E-3</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>249.999896553143</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B48">
         <v>1.0099949999874999E-2</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>249.999776635666</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B49">
         <v>2.0052513410014499E-2</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>249.999518572814</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B50">
         <v>3.9910478190569601E-2</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>249.99896597956001</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B51">
         <v>7.9532307158172E-2</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>249.99778802064799</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B52">
         <v>0.15858820981921201</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>249.99528707062501</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B53">
         <v>0.316325394305628</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>249.989996317281</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B54">
         <v>0.63105229681638897</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>249.97883970765301</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B55">
         <v>1.2590147109201399</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>249.955381661617</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>2.5119638245203899</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>249.90618682623</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>5.0119247234736202</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>249.803261601824</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>9.9999999999999893</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>249.588383945266</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>10.0002036168005</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>249.58837758811001</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>10.0004325307727</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>249.58837142842199</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B61">
         <v>10.0009187987873</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>249.588359469247</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>10.001951748325901</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>249.58833645779001</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>10.0041459801431</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>249.58829266011699</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>10.0088070532041</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>249.58821042307</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>10.018708286933901</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>249.58805866453901</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>10.039740874943</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>249.58778496215101</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B67">
         <v>10.084419121152999</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>249.58730672646001</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>10.1793263994933</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>249.58650905313399</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B69">
         <v>10.380932152763799</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>249.58527391034801</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B70">
         <v>10.809190980353501</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>249.58360739017701</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B71">
         <v>11.7189151347156</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>249.582023034738</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B72">
         <v>13.651386770356201</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>249.58250724515801</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B73">
         <v>17.756418613963898</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>249.590654111486</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B74">
         <v>26.476487838393702</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>249.62001945403799</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B75">
         <v>45</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>249.70104314613701</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>45.000158489319197</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>249.70104471987599</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>45.000316227766</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>249.70104657344501</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B78">
         <v>45.000630957344498</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>249.701050562771</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B79">
         <v>45.001258925411797</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>249.70105910372899</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B80">
         <v>45.002511886431499</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>249.701077305485</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B81">
         <v>45.005011872336297</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>249.701115938577</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>45.01</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>249.701197643272</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B83">
         <v>45.019952623149699</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>249.701369888378</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B84">
         <v>45.039810717055403</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>249.70173196902101</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B85">
         <v>45.079432823472402</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>249.70249115682299</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B86">
         <v>45.158489319246101</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>249.70407930783401</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B87">
         <v>45.316227766016802</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>249.707394727517</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B88">
         <v>45.630957344480201</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>249.714303410497</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B89">
         <v>46.258925411794202</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>249.72867749615801</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B90">
         <v>47.511886431509602</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>249.75854788964301</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B91">
         <v>50.011872336272702</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>249.82057388038501</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B92">
         <v>55</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>249.94934746352101</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B93">
         <v>55.000214112736799</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>249.949351607312</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B94">
         <v>55.0004605779352</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>249.949355801292</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B95">
         <v>55.000990749254299</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>249.949364151141</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B96">
         <v>55.002131200845703</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>249.949380666255</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B97">
         <v>55.004584426407398</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>249.94941308008899</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B98">
         <v>55.009861560222198</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>249.94947611212999</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B99">
         <v>55.0212132034356</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>249.94959730878401</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B100">
         <v>55.045631724581</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>249.949827091495</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B101">
         <v>55.098158408491201</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>249.950255020047</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B102">
         <v>55.2111485648634</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>249.95103354545299</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B103">
         <v>55.4542017044608</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>249.95240620086199</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B104">
         <v>55.977033343648898</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>249.954724408033</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B105">
         <v>57.1016965485301</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>249.95841120796001</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B106">
         <v>59.520959710143202</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>249.96380361169699</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B107">
         <v>64.725037001670202</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>249.97084298323099</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B108">
         <v>75.919528318658607</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>249.97877530001699</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B109">
         <v>100</v>
       </c>
@@ -4226,12 +4226,12 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C5">
         <v>0.1</v>
       </c>

--- a/examples/ex215.transient_solutions_superposition.xlsx
+++ b/examples/ex215.transient_solutions_superposition.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unifloc\unifloc_vba\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF934F5-2096-4908-B7C0-56C6673735E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{9FE607D8-6D61-49B9-A8F6-4E45CEAFA2D8}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="ct">Лист1!$J$5</definedName>
@@ -32,7 +30,7 @@
     <definedName name="rw">Лист1!$J$6</definedName>
     <definedName name="t_0">Лист1!$G$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,28 +46,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -177,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -239,7 +215,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -257,7 +233,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -589,157 +565,157 @@
                   <c:v>7.9527615845445698</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.166921539869001</c:v>
+                  <c:v>15.6133840962218</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19.670154844051599</c:v>
+                  <c:v>16.7408119356922</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.175308071581199</c:v>
+                  <c:v>17.869682934278501</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.68138726371</c:v>
+                  <c:v>18.9992552383905</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24.1879477275852</c:v>
+                  <c:v>20.129203005832998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25.694830699333298</c:v>
+                  <c:v>21.259423460344301</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27.202068973283701</c:v>
+                  <c:v>22.389975761191899</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28.709905601178701</c:v>
+                  <c:v>23.521115373444299</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.218934590862201</c:v>
+                  <c:v>24.6534421490169</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>31.7304368701821</c:v>
+                  <c:v>25.788239766986099</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>33.247066041441599</c:v>
+                  <c:v>26.9281631248341</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>34.774104519350203</c:v>
+                  <c:v>28.0784952469897</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>36.3213346739375</c:v>
+                  <c:v>29.249018790512601</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>37.904480043159701</c:v>
+                  <c:v>30.455457428480901</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>39.542760164236398</c:v>
+                  <c:v>31.7170307617235</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41.249342428254202</c:v>
+                  <c:v>33.046906211271903</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43.021372431889198</c:v>
+                  <c:v>34.4422293878985</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>38.1638917434435</c:v>
+                  <c:v>32.013492188298301</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.475309013018197</c:v>
+                  <c:v>31.669203952796799</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>36.785649470339898</c:v>
+                  <c:v>31.324380426012802</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>36.095465579415901</c:v>
+                  <c:v>30.9793009399189</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>35.405050663148501</c:v>
+                  <c:v>30.634118340866699</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>34.7145836405832</c:v>
+                  <c:v>30.2889344274789</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>34.024217613696301</c:v>
+                  <c:v>29.9438503649206</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>33.334155750645103</c:v>
+                  <c:v>29.5990168268664</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>32.644751862857802</c:v>
+                  <c:v>29.254708577570099</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>31.956684969384099</c:v>
+                  <c:v>28.911460029956299</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>31.271292105413799</c:v>
+                  <c:v>28.5703271961609</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>30.591215142804199</c:v>
+                  <c:v>28.233398673540901</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>29.921645858826601</c:v>
+                  <c:v>27.904780465935701</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>29.272646346979499</c:v>
+                  <c:v>27.592433083236202</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>28.6631784093648</c:v>
+                  <c:v>27.311366629809701</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>28.1270799969225</c:v>
+                  <c:v>27.088396730831398</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>27.7188134568717</c:v>
+                  <c:v>26.966774785489701</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>19.9830472142392</c:v>
+                  <c:v>19.231016869354001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>18.836666962247801</c:v>
+                  <c:v>18.0846462017244</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>17.688882825834099</c:v>
+                  <c:v>16.936882681253898</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>16.540423232599</c:v>
+                  <c:v>15.788467430450201</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>15.391601740771</c:v>
+                  <c:v>14.6397413026913</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>14.242509363798799</c:v>
+                  <c:v>13.490853966542399</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>13.0930708976849</c:v>
+                  <c:v>12.341856116271</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>11.9430006725529</c:v>
+                  <c:v>11.1927316351293</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>10.7916362937752</c:v>
+                  <c:v>10.043392150095</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>9.63757471929652</c:v>
+                  <c:v>8.8936429525553997</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.4780038163616904</c:v>
+                  <c:v>7.7431531976804298</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.3078001802934098</c:v>
+                  <c:v>6.5916318121835404</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.1195714359992799</c:v>
+                  <c:v>5.4400897737616098</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.90927648201927</c:v>
+                  <c:v>4.2958750461746797</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.6957722921248202</c:v>
+                  <c:v>3.1855560149130802</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.5492937777665601</c:v>
+                  <c:v>2.1707704029754602</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.58487749689653</c:v>
+                  <c:v>1.3386392568027401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1001,211 +977,211 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
                 <c:pt idx="0">
-                  <c:v>9.7044111598007E-5</c:v>
+                  <c:v>5.8226466958804199E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8188276285098503E-4</c:v>
+                  <c:v>1.69129657710591E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0277135772134804E-4</c:v>
+                  <c:v>3.0166281463280898E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.84915562521398E-4</c:v>
+                  <c:v>5.9094933751283898E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0405809199977899E-3</c:v>
+                  <c:v>1.22434855199867E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3473498989669603E-3</c:v>
+                  <c:v>2.6084099393801699E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.36509660016192E-3</c:v>
+                  <c:v>5.6190579600971496E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0221286800153601E-2</c:v>
+                  <c:v>1.21327720800922E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3583848104124703E-2</c:v>
+                  <c:v>2.61503088624748E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.36103964943895E-2</c:v>
+                  <c:v>5.6166237896633699E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.200251616140496</c:v>
+                  <c:v>0.120150969684298</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.42666389416645201</c:v>
+                  <c:v>0.25599833649987103</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.90563848626712895</c:v>
+                  <c:v>0.54338309176027699</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.9156520321442401</c:v>
+                  <c:v>1.1493912192865401</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0393208748319802</c:v>
+                  <c:v>2.4235925248991901</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.4929543517942498</c:v>
+                  <c:v>5.0957726110765504</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.810827283735101</c:v>
+                  <c:v>10.6864963702411</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37.263810857709501</c:v>
+                  <c:v>22.3582865146257</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37.264386374288797</c:v>
+                  <c:v>22.3586342260284</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>37.264944013901498</c:v>
+                  <c:v>22.358972426322499</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>37.2660266841417</c:v>
+                  <c:v>22.359630755900099</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>37.268109923063903</c:v>
+                  <c:v>22.3609014602672</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>37.272074948665399</c:v>
+                  <c:v>22.3633292986319</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>37.279519910415203</c:v>
+                  <c:v>22.3679100192108</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>37.293258687436001</c:v>
+                  <c:v>22.3764162156961</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>37.318037103854103</c:v>
+                  <c:v>22.391887065607499</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>37.361332024292203</c:v>
+                  <c:v>22.4192428067599</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>37.4335457963059</c:v>
+                  <c:v>22.465704243986899</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>37.5453639011577</c:v>
+                  <c:v>22.5398846946952</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>37.696234820087199</c:v>
+                  <c:v>22.646389098554799</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>37.839667324106799</c:v>
+                  <c:v>22.7683561573253</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>37.795831508429799</c:v>
+                  <c:v>22.822490760842499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>37.058291554800299</c:v>
+                  <c:v>22.559668816767399</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34.399832153005001</c:v>
+                  <c:v>21.365094164365701</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27.064716083876601</c:v>
+                  <c:v>17.854658295152401</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>27.064573612538702</c:v>
+                  <c:v>17.854541897443902</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>27.064405808018101</c:v>
+                  <c:v>17.854396983272601</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>27.064044652227601</c:v>
+                  <c:v>17.854078400802099</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>27.0632714350272</c:v>
+                  <c:v>17.8533839387398</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>27.0616236207835</c:v>
+                  <c:v>17.851880905205299</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>27.0581261472799</c:v>
+                  <c:v>17.8486476484915</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>27.050729379715101</c:v>
+                  <c:v>17.841728865075599</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>27.035135942601901</c:v>
+                  <c:v>17.826991001364501</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>27.002356597758901</c:v>
+                  <c:v>17.795723101075101</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>26.933626939827601</c:v>
+                  <c:v>17.729619405325099</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>26.789850820780899</c:v>
+                  <c:v>17.590307503709798</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>26.4897041900639</c:v>
+                  <c:v>17.297530896675699</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>25.864257604823401</c:v>
+                  <c:v>16.683759994034599</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>24.562964316643701</c:v>
+                  <c:v>15.399865282076499</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>21.8587823969611</c:v>
+                  <c:v>12.719190845600901</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>16.2435378974683</c:v>
+                  <c:v>7.1305305732683602</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.5855998985272199</c:v>
+                  <c:v>-4.5080209741996597</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.5852247589693302</c:v>
+                  <c:v>-4.5083958097872401</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.5848450758212698</c:v>
+                  <c:v>-4.5087751430751704</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.5840891597930602</c:v>
+                  <c:v>-4.5095303066646801</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.5825940381483496</c:v>
+                  <c:v>-4.5110238104118796</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.5796595972343503</c:v>
+                  <c:v>-4.5139547741818804</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.5739532744542499</c:v>
+                  <c:v>-4.5196536316857099</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.5629812797810603</c:v>
+                  <c:v>-4.5306096344030697</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.5421789340247098</c:v>
+                  <c:v>-4.5513778873283197</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.5034383444491803</c:v>
+                  <c:v>-4.5900465554959302</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.4329580433224898</c:v>
+                  <c:v>-4.66037862793796</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.3086908507853199</c:v>
+                  <c:v>-4.7843562843126302</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.0988223761972797</c:v>
+                  <c:v>-4.9937312403102299</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.7650545029525202</c:v>
+                  <c:v>-5.3269788633548796</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.27687744912595</c:v>
+                  <c:v>-5.8160826938547698</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.6395995626044302</c:v>
+                  <c:v>-6.4617456801306297</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.9214828881666599</c:v>
+                  <c:v>-7.2120916436565299</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.2443087929004</c:v>
+                  <c:v>-7.9737243948794996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1362,6 +1338,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1369,7 +1346,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2011,7 +1987,6 @@
       <definedName name="decode_json"/>
       <definedName name="encode_json"/>
       <definedName name="encode_logspace"/>
-      <definedName name="Gamma"/>
       <definedName name="list_merge"/>
       <definedName name="transient_p_from_pd_atma"/>
       <definedName name="transient_pd_line_sourse"/>
@@ -2320,21 +2295,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2185EE-A7BF-45CB-991D-A3E9B38256FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:W109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="23.19921875" customWidth="1"/>
-    <col min="23" max="23" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>2</v>
       </c>
@@ -2345,7 +2320,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F2" s="1"/>
       <c r="I2" t="s">
         <v>13</v>
@@ -2354,7 +2329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -2366,7 +2341,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2380,7 +2355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2394,7 +2369,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2407,12 +2382,12 @@
       <c r="J6">
         <v>0.1</v>
       </c>
-      <c r="P6" cm="1">
+      <c r="P6">
         <f t="array" ref="P6:P26">[1]!decode_json(G10)</f>
         <v>1.1E-4</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
       <c r="I7" t="s">
         <v>18</v>
@@ -2424,7 +2399,7 @@
         <v>1.1995261317333E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
         <v>19</v>
       </c>
@@ -2435,7 +2410,7 @@
         <v>1.3981067724445399E-4</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -2450,7 +2425,7 @@
         <v>1.7943270432268699E-4</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>0</v>
       </c>
@@ -2458,12 +2433,12 @@
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G10" t="str" cm="1">
+      <c r="G10" t="str">
         <f t="array" ref="G10">[1]!encode_logspace(B10+0.0001,B11,points_per_cycle)</f>
         <v>[0.00011,1.1995261317333E-04,1.39810677244454E-04,1.79432704322687E-04,2.58489002266205E-04,4.16226975444458E-04,7.30955451601535E-04,1.35892100554091E-03,2.61187638393371E-03,5.11184978278519E-03,0.010099949999875,2.00525134100145E-02,3.99104781905696E-02,0.079532307158172,0.158588209819212,0.316325394305628,0.631052296816389,1.25901471092014,2.51196382452039,5.01192472347362,9.99999999999999]</v>
       </c>
@@ -2471,20 +2446,20 @@
         <v>2.58489002266205E-4</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>10</v>
       </c>
       <c r="C11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G11" t="str" cm="1">
+      <c r="G11" t="str">
         <f t="array" ref="G11">[1]!encode_logspace(B11,B12,points_per_cycle)</f>
         <v>[10.00001,10.0000212423912,10.0000451239183,10.0000958539925,10.0002036168005,10.0004325307727,10.0009187987873,10.0019517483259,10.0041459801431,10.0088070532041,10.0187082869339,10.039740874943,10.084419121153,10.1793263994933,10.3809321527638,10.8091909803535,11.7189151347156,13.6513867703562,17.7564186139639,26.4764878383937,45]</v>
       </c>
@@ -2492,7 +2467,7 @@
         <v>4.1622697544445802E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>45</v>
       </c>
@@ -2505,7 +2480,7 @@
       <c r="F12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G12" t="str" cm="1">
+      <c r="G12" t="str">
         <f t="array" ref="G12">[1]!encode_logspace(B12,B13,points_per_cycle)</f>
         <v>[45.00001,45.0000199526231,45.0000398107171,45.0000794328235,45.0001584893192,45.000316227766,45.0006309573445,45.0012589254118,45.0025118864315,45.0050118723363,45.01,45.0199526231497,45.0398107170554,45.0794328234724,45.1584893192461,45.3162277660168,45.6309573444802,46.2589254117942,47.5118864315096,50.0118723362727,55]</v>
       </c>
@@ -2517,7 +2492,7 @@
       <c r="S12" s="3"/>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>55</v>
       </c>
@@ -2538,7 +2513,7 @@
       <c r="S13" s="3"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2550,7 +2525,7 @@
       <c r="S14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2562,7 +2537,7 @@
       <c r="S15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2574,7 +2549,7 @@
       <c r="S16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2586,7 +2561,7 @@
       <c r="S17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2598,7 +2573,7 @@
       <c r="S18" s="3"/>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2610,7 +2585,7 @@
       <c r="S19" s="3"/>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2622,7 +2597,7 @@
       <c r="S20" s="3"/>
       <c r="W20" s="3"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2634,12 +2609,12 @@
       <c r="S21" s="3"/>
       <c r="W21" s="3"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>MAX(B10:B21)</f>
         <v>55</v>
       </c>
-      <c r="G22" t="str" cm="1">
+      <c r="G22" t="str">
         <f t="array" ref="G22">[1]!encode_logspace(B22,dt_calc,points_per_cycle)</f>
         <v>[55.00001,55.0000215110013,55.0000462723175,55.000099536388,55.0002141127368,55.0004605779352,55.0009907492543,55.0021312008457,55.0045844264074,55.0098615602222,55.0212132034356,55.045631724581,55.0981584084912,55.2111485648634,55.4542017044608,55.9770333436489,57.1016965485301,59.5209597101432,64.7250370016702,75.9195283186586,100]</v>
       </c>
@@ -2651,7 +2626,7 @@
       <c r="S22" s="3"/>
       <c r="W22" s="3"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
       <c r="P23">
@@ -2660,7 +2635,7 @@
       <c r="S23" s="3"/>
       <c r="W23" s="3"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F24" s="1" t="s">
         <v>7</v>
       </c>
@@ -2672,11 +2647,11 @@
       <c r="S24" s="3"/>
       <c r="W24" s="3"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="str" cm="1">
+      <c r="G25" t="str">
         <f t="array" ref="G25">[1]!encode_json(B10:B21)</f>
         <v>[0,10,45,55]</v>
       </c>
@@ -2688,11 +2663,11 @@
       <c r="S25" s="3"/>
       <c r="W25" s="3"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>12</v>
       </c>
-      <c r="G26" t="str" cm="1">
+      <c r="G26" t="str">
         <f t="array" ref="G26">[1]!transient_td_from_t(G25,rw,k,phi,mu,ct)</f>
         <v>[0,3600000,16200000,19800000]</v>
       </c>
@@ -2704,49 +2679,49 @@
       <c r="S26" s="3"/>
       <c r="W26" s="3"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
       <c r="S27" s="3"/>
       <c r="W27" s="3"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>3</v>
       </c>
-      <c r="G28" t="str" cm="1">
+      <c r="G28" t="str">
         <f t="array" ref="G28">[1]!encode_json(C10:C21)</f>
-        <v>[1,5,3,0]</v>
+        <v>[1,4,3,0]</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
       <c r="S28" s="3"/>
       <c r="W28" s="3"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>4</v>
       </c>
-      <c r="G29" t="str" cm="1">
+      <c r="G29" t="str">
         <f t="array" ref="G29">[1]!encode_json(D10:D21)</f>
-        <v>[0,5,3,0]</v>
+        <v>[1,4,3,0]</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="3"/>
       <c r="S29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="N30" s="2"/>
       <c r="O30" s="3"/>
       <c r="S30" s="3"/>
       <c r="W30" s="3"/>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>24</v>
       </c>
-      <c r="G31" t="str" cm="1">
+      <c r="G31" t="str">
         <f t="array" ref="G31">[1]!list_merge(G10,G11,G12,G13,G14,G15,G22)</f>
         <v>[0.00011,2.58489002266205E-04,4.16226975444458E-04,7.30955451601535E-04,1.35892100554091E-03,2.61187638393371E-03,5.11184978278519E-03,0.010099949999875,2.00525134100145E-02,3.99104781905696E-02,0.079532307158172,0.158588209819212,0.316325394305628,0.631052296816389,1.25901471092014,2.51196382452039,5.01192472347362,9.99999999999999,10.0002036168005,10.0004325307727,10.0009187987873,10.0019517483259,10.0041459801431,10.0088070532041,10.0187082869339,10.039740874943,10.084419121153,10.1793263994933,10.3809321527638,10.8091909803535,11.7189151347156,13.6513867703562,17.7564186139639,26.4764878383937,45,45.0001584893192,45.000316227766,45.0006309573445,45.0012589254118,45.0025118864315,45.0050118723363,45.01,45.0199526231497,45.0398107170554,45.0794328234724,45.1584893192461,45.3162277660168,45.6309573444802,46.2589254117942,47.5118864315096,50.0118723362727,55,55.0002141127368,55.0004605779352,55.0009907492543,55.0021312008457,55.0045844264074,55.0098615602222,55.0212132034356,55.045631724581,55.0981584084912,55.2111485648634,55.4542017044608,55.9770333436489,57.1016965485301,59.5209597101432,64.7250370016702,75.9195283186586,100]</v>
       </c>
@@ -2755,11 +2730,11 @@
       <c r="S31" s="3"/>
       <c r="W31" s="3"/>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>25</v>
       </c>
-      <c r="G32" t="str" cm="1">
+      <c r="G32" t="str">
         <f t="array" ref="G32">[1]!transient_td_from_t(G31,rw,k,phi,mu,ct)</f>
         <v>[39.6,93.0560408158338,149.841711160005,263.143962576553,489.211561994728,940.275498216135,1840.26592180267,3635.981999955,7218.90482760522,14367.7721486051,28631.6305769419,57091.7555349163,113877.141950026,227178.8268539,453245.29593125,904306.97682734,1804292.9004505,3600000,3600073.30204818,3600155.71107817,3600330.76756343,3600702.62939732,3601492.55285152,3603170.53915348,3606734.9832962,3614306.71497948,3630390.88361508,3664557.50381759,3737135.57499497,3891308.75292726,4218809.44849761,4914499.23732823,6392310.701027,9531535.62182173,16200000,16200057.0561549,16200113.8419958,16200227.144644,16200453.2131482,16200904.2791153,16201804.2740411,16203600,16207182.9443339,16214331.8581399,16228595.8164501,16257056.1549286,16313841.995766,16427144.6440129,16653213.1482459,17104279.1153435,18004274.0410582,19800000,19800077.0805852,19800165.8080567,19800356.6697315,19800767.2323045,19801650.3935067,19803550.16168,19807636.7532368,19816427.4208492,19835337.0270568,19876013.4833508,19963512.6136059,20151732.0037136,20556610.7574708,21427545.4956516,23301013.3206013,27331030.1947171,36000000]</v>
       </c>
@@ -2768,43 +2743,43 @@
       <c r="S32" s="3"/>
       <c r="W32" s="3"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>26</v>
       </c>
-      <c r="G34" t="str" cm="1">
+      <c r="G34" t="str">
         <f t="array" ref="G34">[1]!transient_pd_line_sourse(G32,1,G28,G26)</f>
-        <v>[2.2471054979236,2.67248267357216,2.9101629529193,3.19136489477703,3.50119234765965,3.82775873680031,4.16343995220799,4.50389097851512,4.84678593083227,5.19091951417901,5.535677388855,5.88074903696006,6.22597816780542,6.57128628324753,6.91663399891458,7.26200156527048,7.60737908143553,7.95276158454457,18.166921539869,19.6701548440516,21.1753080715812,22.68138726371,24.1879477275852,25.6948306993333,27.2020689732837,28.7099056011787,30.2189345908622,31.7304368701821,33.2470660414416,34.7741045193502,36.3213346739375,37.9044800431597,39.5427601642364,41.2493424282542,43.0213724318892,38.1638917434435,37.4753090130182,36.7856494703399,36.0954655794159,35.4050506631485,34.7145836405832,34.0242176136963,33.3341557506451,32.6447518628578,31.9566849693841,31.2712921054138,30.5912151428042,29.9216458588266,29.2726463469795,28.6631784093648,28.1270799969225,27.7188134568717,19.9830472142392,18.8366669622478,17.6888828258341,16.540423232599,15.391601740771,14.2425093637988,13.0930708976849,11.9430006725529,10.7916362937752,9.63757471929652,8.47800381636169,7.30780018029341,6.11957143599928,4.90927648201927,3.69577229212482,2.54929377776656,1.58487749689653]</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
+        <v>[2.2471054979236,2.67248267357216,2.9101629529193,3.19136489477703,3.50119234765965,3.82775873680031,4.16343995220799,4.50389097851512,4.84678593083227,5.19091951417901,5.535677388855,5.88074903696006,6.22597816780542,6.57128628324753,6.91663399891458,7.26200156527048,7.60737908143553,7.95276158454457,15.6133840962218,16.7408119356922,17.8696829342785,18.9992552383905,20.129203005833,21.2594234603443,22.3899757611919,23.5211153734443,24.6534421490169,25.7882397669861,26.9281631248341,28.0784952469897,29.2490187905126,30.4554574284809,31.7170307617235,33.0469062112719,34.4422293878985,32.0134921882983,31.6692039527968,31.3243804260128,30.9793009399189,30.6341183408667,30.2889344274789,29.9438503649206,29.5990168268664,29.2547085775701,28.9114600299563,28.5703271961609,28.2333986735409,27.9047804659357,27.5924330832362,27.3113666298097,27.0883967308314,26.9667747854897,19.231016869354,18.0846462017244,16.9368826812539,15.7884674304502,14.6397413026913,13.4908539665424,12.341856116271,11.1927316351293,10.043392150095,8.8936429525554,7.74315319768043,6.59163181218354,5.44008977376161,4.29587504617468,3.18555601491308,2.17077040297546,1.33863925680274]</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>27</v>
       </c>
-      <c r="G35" t="str" cm="1">
+      <c r="G35" t="str">
         <f t="array" ref="G35">[1]!transient_p_from_pd_atma(G34,q_ref,P_i,k,h,mu)</f>
-        <v>[249.97517847267,249.970479756388,249.967854340022,249.964748183372,249.961325829328,249.957718576993,249.954010642288,249.950250020251,249.946462402608,249.942661103046,249.938852907563,249.935041246138,249.931227845158,249.927413571715,249.923598860848,249.91978393071,249.915968890666,249.912153795537,249.799328184671,249.782723469593,249.766097547041,249.749461396285,249.732819929401,249.716174900095,249.699525946121,249.682870382729,249.666201648509,249.649505594332,249.632752908506,249.615885241479,249.598794537192,249.581307113443,249.563210671226,249.544359763537,249.524785920117,249.578441651802,249.586047736642,249.593665715951,249.60128948721,249.608915810375,249.616542709106,249.624168492239,249.631790915578,249.639406070923,249.647006457828,249.654577307404,249.662089437533,249.669485499843,249.676654348451,249.68338653129,249.689308274354,249.693817986555,249.779267260472,249.791930176735,249.804608600306,249.817294484973,249.829984367171,249.842677241567,249.855373938864,249.868077614571,249.880795585499,249.893543349651,249.906351969844,249.919278039208,249.932403213918,249.94577213198,249.959176499261,249.971840500931,249.982493443169]</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
+        <v>[249.97517847267,249.970479756388,249.967854340022,249.964748183372,249.961325829328,249.957718576993,249.954010642288,249.950250020251,249.946462402608,249.942661103046,249.938852907563,249.935041246138,249.931227845158,249.927413571715,249.923598860848,249.91978393071,249.915968890666,249.912153795537,249.827534559273,249.815080991358,249.802611482308,249.790134226637,249.777652823598,249.765168408457,249.752680327742,249.740185759585,249.727678078022,249.715143103534,249.702551510123,249.689844941502,249.67691533844,249.663589017245,249.649653678206,249.63496387399,249.619551134181,249.646378965288,249.650181973137,249.653990893814,249.657802641818,249.661615528807,249.665428430314,249.669240228869,249.67304926013,249.676852489052,249.680644012509,249.684412165791,249.688133878252,249.691763794973,249.695213984163,249.698318644207,249.700781569711,249.702125005719,249.787574187661,249.800236998056,249.812915193903,249.825600588763,249.83828941757,249.850980027086,249.86367185734,249.876365086358,249.88906069031,249.901760819946,249.914469129778,249.927188835003,249.939908768359,249.95254776424,249.964812348259,249.976021670129,249.985213390769]</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>26</v>
       </c>
-      <c r="G37" t="str" cm="1">
+      <c r="G37" t="str">
         <f t="array" ref="G37">[1]!transient_pd_line_sourse(G32,1,G29,G26,0)</f>
-        <v>[9.7044111598007E-05,2.81882762850985E-04,5.02771357721348E-04,9.84915562521398E-04,2.04058091999779E-03,4.34734989896696E-03,9.36509660016192E-03,2.02212868001536E-02,4.35838481041247E-02,9.36103964943895E-02,0.200251616140496,0.426663894166452,0.905638486267129,1.91565203214424,4.03932087483198,8.49295435179425,17.8108272837351,37.2638108577095,37.2643863742888,37.2649440139015,37.2660266841417,37.2681099230639,37.2720749486654,37.2795199104152,37.293258687436,37.3180371038541,37.3613320242922,37.4335457963059,37.5453639011577,37.6962348200872,37.8396673241068,37.7958315084298,37.0582915548003,34.399832153005,27.0647160838766,27.0645736125387,27.0644058080181,27.0640446522276,27.0632714350272,27.0616236207835,27.0581261472799,27.0507293797151,27.0351359426019,27.0023565977589,26.9336269398276,26.7898508207809,26.4897041900639,25.8642576048234,24.5629643166437,21.8587823969611,16.2435378974683,4.58559989852722,4.58522475896933,4.58484507582127,4.58408915979306,4.58259403814835,4.57965959723435,4.57395327445425,4.56298127978106,4.54217893402471,4.50343834444918,4.43295804332249,4.30869085078532,4.09882237619728,3.76505450295252,3.27687744912595,2.63959956260443,1.92148288816666,1.2443087929004]</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
+        <v>[5.82264669588042E-05,1.69129657710591E-04,3.01662814632809E-04,5.90949337512839E-04,1.22434855199867E-03,2.60840993938017E-03,5.61905796009715E-03,1.21327720800922E-02,2.61503088624748E-02,5.61662378966337E-02,0.120150969684298,0.255998336499871,0.543383091760277,1.14939121928654,2.42359252489919,5.09577261107655,10.6864963702411,22.3582865146257,22.3586342260284,22.3589724263225,22.3596307559001,22.3609014602672,22.3633292986319,22.3679100192108,22.3764162156961,22.3918870656075,22.4192428067599,22.4657042439869,22.5398846946952,22.6463890985548,22.7683561573253,22.8224907608425,22.5596688167674,21.3650941643657,17.8546582951524,17.8545418974439,17.8543969832726,17.8540784008021,17.8533839387398,17.8518809052053,17.8486476484915,17.8417288650756,17.8269910013645,17.7957231010751,17.7296194053251,17.5903075037098,17.2975308966757,16.6837599940346,15.3998652820765,12.7191908456009,7.13053057326836,-4.50802097419966,-4.50839580978724,-4.50877514307517,-4.50953030666468,-4.51102381041188,-4.51395477418188,-4.51965363168571,-4.53060963440307,-4.55137788732832,-4.59004655549593,-4.66037862793796,-4.78435628431263,-4.99373124031023,-5.32697886335488,-5.81608269385477,-6.46174568013063,-7.21209164365653,-7.9737243948795]</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>27</v>
       </c>
-      <c r="G38" t="str" cm="1">
+      <c r="G38" t="str">
         <f t="array" ref="G38">[1]!transient_p_from_pd_atma(G37,q_ref,P_i,k,h,mu)</f>
-        <v>[249.999998928051,249.999996886323,249.999994446388,249.999989120623,249.999977459743,249.999951979173,249.999896553143,249.999776635666,249.999518572814,249.99896597956,249.997788020648,249.995287070625,249.989996317281,249.978839707653,249.955381661617,249.90618682623,249.803261601824,249.588383945266,249.58837758811,249.588371428422,249.588359469247,249.58833645779,249.588292660117,249.58821042307,249.588058664539,249.587784962151,249.58730672646,249.586509053134,249.585273910348,249.583607390177,249.582023034738,249.582507245158,249.590654111486,249.620019454038,249.701043146137,249.701044719876,249.701046573445,249.701050562771,249.701059103729,249.701077305485,249.701115938577,249.701197643272,249.701369888378,249.701731969021,249.702491156823,249.704079307834,249.707394727517,249.714303410497,249.728677496158,249.758547889643,249.820573880385,249.949347463521,249.949351607312,249.949355801292,249.949364151141,249.949380666255,249.949413080089,249.94947611213,249.949597308784,249.949827091495,249.950255020047,249.951033545453,249.952406200862,249.954724408033,249.95841120796,249.963803611697,249.970842983231,249.978775300017,249.986255365074]</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
+        <v>[249.99999935683,249.999998131794,249.999996667833,249.999993472374,249.999986475846,249.999971187504,249.999937931886,249.9998659814,249.999711143688,249.999379587736,249.998672812389,249.997172242375,249.993997790368,249.987303824592,249.97322899697,249.943712095738,249.881956961094,249.753030367159,249.753026526339,249.753022790579,249.75301551867,249.75300148247,249.752974664567,249.752924065928,249.752830106481,249.752659215473,249.752357043957,249.751843830921,249.751024433662,249.749847986017,249.748500737886,249.747902767056,249.75080589825,249.76400116986,249.802777444472,249.802778730201,249.802780330923,249.802783849985,249.802791521013,249.802808123521,249.802843838075,249.802920262956,249.803083057399,249.803428442626,249.804158624049,249.805697463314,249.808931473715,249.815711187106,249.829893088094,249.859503817919,249.921236159288,250.049795599681,250.049799740115,250.04980393023,250.049812271767,250.04982876901,250.049861144436,250.049924094016,250.050045114022,250.050274520143,250.050701654252,250.051478542324,250.052847999517,250.05516075528,250.058841808525,250.064244449436,250.071376442783,250.079664764296,250.088077759666]</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>0</v>
       </c>
@@ -2824,33 +2799,33 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B41" cm="1">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41">
         <f t="array" ref="B41:B109">[1]!decode_json(G31)</f>
         <v>1.1E-4</v>
       </c>
-      <c r="C41" cm="1">
+      <c r="C41">
         <f t="array" ref="C41:C109">[1]!decode_json(G32)</f>
         <v>39.6</v>
       </c>
-      <c r="D41" cm="1">
+      <c r="D41">
         <f t="array" ref="D41:D109">[1]!decode_json(G34)</f>
         <v>2.2471054979236</v>
       </c>
-      <c r="E41" cm="1">
+      <c r="E41">
         <f t="array" ref="E41:E109">[1]!decode_json(G35)</f>
         <v>249.97517847267</v>
       </c>
-      <c r="G41" cm="1">
+      <c r="G41">
         <f t="array" ref="G41:G109">[1]!decode_json(G37)</f>
-        <v>9.7044111598007E-5</v>
-      </c>
-      <c r="H41" cm="1">
+        <v>5.8226466958804199E-5</v>
+      </c>
+      <c r="H41">
         <f t="array" ref="H41:H109">[1]!decode_json(G38)</f>
-        <v>249.99999892805101</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.99999935682999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>2.58489002266205E-4</v>
       </c>
@@ -2864,13 +2839,13 @@
         <v>249.97047975638799</v>
       </c>
       <c r="G42">
-        <v>2.8188276285098503E-4</v>
+        <v>1.69129657710591E-4</v>
       </c>
       <c r="H42">
-        <v>249.999996886323</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.999998131794</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>4.1622697544445802E-4</v>
       </c>
@@ -2884,13 +2859,13 @@
         <v>249.967854340022</v>
       </c>
       <c r="G43">
-        <v>5.0277135772134804E-4</v>
+        <v>3.0166281463280898E-4</v>
       </c>
       <c r="H43">
-        <v>249.999994446388</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.99999666783299</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>7.3095545160153496E-4</v>
       </c>
@@ -2904,13 +2879,13 @@
         <v>249.964748183372</v>
       </c>
       <c r="G44">
-        <v>9.84915562521398E-4</v>
+        <v>5.9094933751283898E-4</v>
       </c>
       <c r="H44">
-        <v>249.99998912062301</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.999993472374</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>1.3589210055409101E-3</v>
       </c>
@@ -2924,13 +2899,13 @@
         <v>249.96132582932799</v>
       </c>
       <c r="G45">
-        <v>2.0405809199977899E-3</v>
+        <v>1.22434855199867E-3</v>
       </c>
       <c r="H45">
-        <v>249.99997745974301</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.99998647584599</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>2.6118763839337099E-3</v>
       </c>
@@ -2944,13 +2919,13 @@
         <v>249.95771857699299</v>
       </c>
       <c r="G46">
-        <v>4.3473498989669603E-3</v>
+        <v>2.6084099393801699E-3</v>
       </c>
       <c r="H46">
-        <v>249.99995197917301</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.999971187504</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>5.1118497827851899E-3</v>
       </c>
@@ -2964,13 +2939,13 @@
         <v>249.95401064228801</v>
       </c>
       <c r="G47">
-        <v>9.36509660016192E-3</v>
+        <v>5.6190579600971496E-3</v>
       </c>
       <c r="H47">
-        <v>249.999896553143</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.999937931886</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>1.0099949999874999E-2</v>
       </c>
@@ -2984,13 +2959,13 @@
         <v>249.95025002025099</v>
       </c>
       <c r="G48">
-        <v>2.0221286800153601E-2</v>
+        <v>1.21327720800922E-2</v>
       </c>
       <c r="H48">
-        <v>249.999776635666</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.99986598140001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>2.0052513410014499E-2</v>
       </c>
@@ -3004,13 +2979,13 @@
         <v>249.94646240260801</v>
       </c>
       <c r="G49">
-        <v>4.3583848104124703E-2</v>
+        <v>2.61503088624748E-2</v>
       </c>
       <c r="H49">
-        <v>249.999518572814</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.99971114368799</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>3.9910478190569601E-2</v>
       </c>
@@ -3024,13 +2999,13 @@
         <v>249.94266110304599</v>
       </c>
       <c r="G50">
-        <v>9.36103964943895E-2</v>
+        <v>5.6166237896633699E-2</v>
       </c>
       <c r="H50">
-        <v>249.99896597956001</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.999379587736</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>7.9532307158172E-2</v>
       </c>
@@ -3044,13 +3019,13 @@
         <v>249.93885290756299</v>
       </c>
       <c r="G51">
-        <v>0.200251616140496</v>
+        <v>0.120150969684298</v>
       </c>
       <c r="H51">
-        <v>249.99778802064799</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.998672812389</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>0.15858820981921201</v>
       </c>
@@ -3064,13 +3039,13 @@
         <v>249.93504124613801</v>
       </c>
       <c r="G52">
-        <v>0.42666389416645201</v>
+        <v>0.25599833649987103</v>
       </c>
       <c r="H52">
-        <v>249.99528707062501</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.997172242375</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>0.316325394305628</v>
       </c>
@@ -3084,13 +3059,13 @@
         <v>249.93122784515799</v>
       </c>
       <c r="G53">
-        <v>0.90563848626712895</v>
+        <v>0.54338309176027699</v>
       </c>
       <c r="H53">
-        <v>249.989996317281</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.99399779036801</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>0.63105229681638897</v>
       </c>
@@ -3104,13 +3079,13 @@
         <v>249.92741357171499</v>
       </c>
       <c r="G54">
-        <v>1.9156520321442401</v>
+        <v>1.1493912192865401</v>
       </c>
       <c r="H54">
-        <v>249.97883970765301</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.987303824592</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>1.2590147109201399</v>
       </c>
@@ -3124,13 +3099,13 @@
         <v>249.92359886084799</v>
       </c>
       <c r="G55">
-        <v>4.0393208748319802</v>
+        <v>2.4235925248991901</v>
       </c>
       <c r="H55">
-        <v>249.955381661617</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.97322899696999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>2.5119638245203899</v>
       </c>
@@ -3144,13 +3119,13 @@
         <v>249.91978393071</v>
       </c>
       <c r="G56">
-        <v>8.4929543517942498</v>
+        <v>5.0957726110765504</v>
       </c>
       <c r="H56">
-        <v>249.90618682623</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.94371209573799</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>5.0119247234736202</v>
       </c>
@@ -3164,13 +3139,13 @@
         <v>249.91596889066599</v>
       </c>
       <c r="G57">
-        <v>17.810827283735101</v>
+        <v>10.6864963702411</v>
       </c>
       <c r="H57">
-        <v>249.803261601824</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.88195696109401</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>9.9999999999999893</v>
       </c>
@@ -3184,13 +3159,13 @@
         <v>249.91215379553699</v>
       </c>
       <c r="G58">
-        <v>37.263810857709501</v>
+        <v>22.3582865146257</v>
       </c>
       <c r="H58">
-        <v>249.588383945266</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.753030367159</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>10.0002036168005</v>
       </c>
@@ -3198,19 +3173,19 @@
         <v>3600073.3020481798</v>
       </c>
       <c r="D59">
-        <v>18.166921539869001</v>
+        <v>15.6133840962218</v>
       </c>
       <c r="E59">
-        <v>249.799328184671</v>
+        <v>249.827534559273</v>
       </c>
       <c r="G59">
-        <v>37.264386374288797</v>
+        <v>22.3586342260284</v>
       </c>
       <c r="H59">
-        <v>249.58837758811001</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.753026526339</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>10.0004325307727</v>
       </c>
@@ -3218,19 +3193,19 @@
         <v>3600155.7110781702</v>
       </c>
       <c r="D60">
-        <v>19.670154844051599</v>
+        <v>16.7408119356922</v>
       </c>
       <c r="E60">
-        <v>249.78272346959301</v>
+        <v>249.815080991358</v>
       </c>
       <c r="G60">
-        <v>37.264944013901498</v>
+        <v>22.358972426322499</v>
       </c>
       <c r="H60">
-        <v>249.58837142842199</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.753022790579</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>10.0009187987873</v>
       </c>
@@ -3238,19 +3213,19 @@
         <v>3600330.7675634301</v>
       </c>
       <c r="D61">
-        <v>21.175308071581199</v>
+        <v>17.869682934278501</v>
       </c>
       <c r="E61">
-        <v>249.766097547041</v>
+        <v>249.80261148230801</v>
       </c>
       <c r="G61">
-        <v>37.2660266841417</v>
+        <v>22.359630755900099</v>
       </c>
       <c r="H61">
-        <v>249.588359469247</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.75301551867</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>10.001951748325901</v>
       </c>
@@ -3258,19 +3233,19 @@
         <v>3600702.6293973201</v>
       </c>
       <c r="D62">
-        <v>22.68138726371</v>
+        <v>18.9992552383905</v>
       </c>
       <c r="E62">
-        <v>249.749461396285</v>
+        <v>249.79013422663701</v>
       </c>
       <c r="G62">
-        <v>37.268109923063903</v>
+        <v>22.3609014602672</v>
       </c>
       <c r="H62">
-        <v>249.58833645779001</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.75300148247001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>10.0041459801431</v>
       </c>
@@ -3278,19 +3253,19 @@
         <v>3601492.55285152</v>
       </c>
       <c r="D63">
-        <v>24.1879477275852</v>
+        <v>20.129203005832998</v>
       </c>
       <c r="E63">
-        <v>249.73281992940099</v>
+        <v>249.777652823598</v>
       </c>
       <c r="G63">
-        <v>37.272074948665399</v>
+        <v>22.3633292986319</v>
       </c>
       <c r="H63">
-        <v>249.58829266011699</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.75297466456701</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>10.0088070532041</v>
       </c>
@@ -3298,19 +3273,19 @@
         <v>3603170.53915348</v>
       </c>
       <c r="D64">
-        <v>25.694830699333298</v>
+        <v>21.259423460344301</v>
       </c>
       <c r="E64">
-        <v>249.71617490009501</v>
+        <v>249.76516840845699</v>
       </c>
       <c r="G64">
-        <v>37.279519910415203</v>
+        <v>22.3679100192108</v>
       </c>
       <c r="H64">
-        <v>249.58821042307</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.752924065928</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>10.018708286933901</v>
       </c>
@@ -3318,19 +3293,19 @@
         <v>3606734.9832962002</v>
       </c>
       <c r="D65">
-        <v>27.202068973283701</v>
+        <v>22.389975761191899</v>
       </c>
       <c r="E65">
-        <v>249.69952594612101</v>
+        <v>249.75268032774201</v>
       </c>
       <c r="G65">
-        <v>37.293258687436001</v>
+        <v>22.3764162156961</v>
       </c>
       <c r="H65">
-        <v>249.58805866453901</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.75283010648101</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>10.039740874943</v>
       </c>
@@ -3338,19 +3313,19 @@
         <v>3614306.71497948</v>
       </c>
       <c r="D66">
-        <v>28.709905601178701</v>
+        <v>23.521115373444299</v>
       </c>
       <c r="E66">
-        <v>249.68287038272899</v>
+        <v>249.74018575958499</v>
       </c>
       <c r="G66">
-        <v>37.318037103854103</v>
+        <v>22.391887065607499</v>
       </c>
       <c r="H66">
-        <v>249.58778496215101</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.75265921547299</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>10.084419121152999</v>
       </c>
@@ -3358,19 +3333,19 @@
         <v>3630390.8836150798</v>
       </c>
       <c r="D67">
-        <v>30.218934590862201</v>
+        <v>24.6534421490169</v>
       </c>
       <c r="E67">
-        <v>249.666201648509</v>
+        <v>249.727678078022</v>
       </c>
       <c r="G67">
-        <v>37.361332024292203</v>
+        <v>22.4192428067599</v>
       </c>
       <c r="H67">
-        <v>249.58730672646001</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.75235704395701</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>10.1793263994933</v>
       </c>
@@ -3378,19 +3353,19 @@
         <v>3664557.50381759</v>
       </c>
       <c r="D68">
-        <v>31.7304368701821</v>
+        <v>25.788239766986099</v>
       </c>
       <c r="E68">
-        <v>249.649505594332</v>
+        <v>249.71514310353399</v>
       </c>
       <c r="G68">
-        <v>37.4335457963059</v>
+        <v>22.465704243986899</v>
       </c>
       <c r="H68">
-        <v>249.58650905313399</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.75184383092099</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>10.380932152763799</v>
       </c>
@@ -3398,19 +3373,19 @@
         <v>3737135.5749949701</v>
       </c>
       <c r="D69">
-        <v>33.247066041441599</v>
+        <v>26.9281631248341</v>
       </c>
       <c r="E69">
-        <v>249.63275290850601</v>
+        <v>249.70255151012299</v>
       </c>
       <c r="G69">
-        <v>37.5453639011577</v>
+        <v>22.5398846946952</v>
       </c>
       <c r="H69">
-        <v>249.58527391034801</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.751024433662</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>10.809190980353501</v>
       </c>
@@ -3418,19 +3393,19 @@
         <v>3891308.75292726</v>
       </c>
       <c r="D70">
-        <v>34.774104519350203</v>
+        <v>28.0784952469897</v>
       </c>
       <c r="E70">
-        <v>249.61588524147899</v>
+        <v>249.689844941502</v>
       </c>
       <c r="G70">
-        <v>37.696234820087199</v>
+        <v>22.646389098554799</v>
       </c>
       <c r="H70">
-        <v>249.58360739017701</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.74984798601699</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>11.7189151347156</v>
       </c>
@@ -3438,19 +3413,19 @@
         <v>4218809.4484976102</v>
       </c>
       <c r="D71">
-        <v>36.3213346739375</v>
+        <v>29.249018790512601</v>
       </c>
       <c r="E71">
-        <v>249.59879453719199</v>
+        <v>249.67691533844001</v>
       </c>
       <c r="G71">
-        <v>37.839667324106799</v>
+        <v>22.7683561573253</v>
       </c>
       <c r="H71">
-        <v>249.582023034738</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.74850073788599</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>13.651386770356201</v>
       </c>
@@ -3458,19 +3433,19 @@
         <v>4914499.2373282304</v>
       </c>
       <c r="D72">
-        <v>37.904480043159701</v>
+        <v>30.455457428480901</v>
       </c>
       <c r="E72">
-        <v>249.58130711344299</v>
+        <v>249.66358901724499</v>
       </c>
       <c r="G72">
-        <v>37.795831508429799</v>
+        <v>22.822490760842499</v>
       </c>
       <c r="H72">
-        <v>249.58250724515801</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.74790276705599</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>17.756418613963898</v>
       </c>
@@ -3478,19 +3453,19 @@
         <v>6392310.7010270003</v>
       </c>
       <c r="D73">
-        <v>39.542760164236398</v>
+        <v>31.7170307617235</v>
       </c>
       <c r="E73">
-        <v>249.56321067122599</v>
+        <v>249.64965367820599</v>
       </c>
       <c r="G73">
-        <v>37.058291554800299</v>
+        <v>22.559668816767399</v>
       </c>
       <c r="H73">
-        <v>249.590654111486</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.75080589825001</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>26.476487838393702</v>
       </c>
@@ -3498,19 +3473,19 @@
         <v>9531535.6218217295</v>
       </c>
       <c r="D74">
-        <v>41.249342428254202</v>
+        <v>33.046906211271903</v>
       </c>
       <c r="E74">
-        <v>249.54435976353699</v>
+        <v>249.63496387398999</v>
       </c>
       <c r="G74">
-        <v>34.399832153005001</v>
+        <v>21.365094164365701</v>
       </c>
       <c r="H74">
-        <v>249.62001945403799</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.76400116985999</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>45</v>
       </c>
@@ -3518,19 +3493,19 @@
         <v>16200000</v>
       </c>
       <c r="D75">
-        <v>43.021372431889198</v>
+        <v>34.4422293878985</v>
       </c>
       <c r="E75">
-        <v>249.52478592011701</v>
+        <v>249.61955113418099</v>
       </c>
       <c r="G75">
-        <v>27.064716083876601</v>
+        <v>17.854658295152401</v>
       </c>
       <c r="H75">
-        <v>249.70104314613701</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.80277744447201</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>45.000158489319197</v>
       </c>
@@ -3538,19 +3513,19 @@
         <v>16200057.056154899</v>
       </c>
       <c r="D76">
-        <v>38.1638917434435</v>
+        <v>32.013492188298301</v>
       </c>
       <c r="E76">
-        <v>249.578441651802</v>
+        <v>249.64637896528799</v>
       </c>
       <c r="G76">
-        <v>27.064573612538702</v>
+        <v>17.854541897443902</v>
       </c>
       <c r="H76">
-        <v>249.70104471987599</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.802778730201</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>45.000316227766</v>
       </c>
@@ -3558,19 +3533,19 @@
         <v>16200113.8419958</v>
       </c>
       <c r="D77">
-        <v>37.475309013018197</v>
+        <v>31.669203952796799</v>
       </c>
       <c r="E77">
-        <v>249.586047736642</v>
+        <v>249.65018197313699</v>
       </c>
       <c r="G77">
-        <v>27.064405808018101</v>
+        <v>17.854396983272601</v>
       </c>
       <c r="H77">
-        <v>249.70104657344501</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.80278033092301</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>45.000630957344498</v>
       </c>
@@ -3578,19 +3553,19 @@
         <v>16200227.144644</v>
       </c>
       <c r="D78">
-        <v>36.785649470339898</v>
+        <v>31.324380426012802</v>
       </c>
       <c r="E78">
-        <v>249.593665715951</v>
+        <v>249.65399089381401</v>
       </c>
       <c r="G78">
-        <v>27.064044652227601</v>
+        <v>17.854078400802099</v>
       </c>
       <c r="H78">
-        <v>249.701050562771</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.80278384998499</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>45.001258925411797</v>
       </c>
@@ -3598,19 +3573,19 @@
         <v>16200453.213148201</v>
       </c>
       <c r="D79">
-        <v>36.095465579415901</v>
+        <v>30.9793009399189</v>
       </c>
       <c r="E79">
-        <v>249.60128948721001</v>
+        <v>249.65780264181799</v>
       </c>
       <c r="G79">
-        <v>27.0632714350272</v>
+        <v>17.8533839387398</v>
       </c>
       <c r="H79">
-        <v>249.70105910372899</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.80279152101301</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>45.002511886431499</v>
       </c>
@@ -3618,19 +3593,19 @@
         <v>16200904.279115301</v>
       </c>
       <c r="D80">
-        <v>35.405050663148501</v>
+        <v>30.634118340866699</v>
       </c>
       <c r="E80">
-        <v>249.60891581037501</v>
+        <v>249.661615528807</v>
       </c>
       <c r="G80">
-        <v>27.0616236207835</v>
+        <v>17.851880905205299</v>
       </c>
       <c r="H80">
-        <v>249.701077305485</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.802808123521</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>45.005011872336297</v>
       </c>
@@ -3638,19 +3613,19 @@
         <v>16201804.274041099</v>
       </c>
       <c r="D81">
-        <v>34.7145836405832</v>
+        <v>30.2889344274789</v>
       </c>
       <c r="E81">
-        <v>249.616542709106</v>
+        <v>249.66542843031399</v>
       </c>
       <c r="G81">
-        <v>27.0581261472799</v>
+        <v>17.8486476484915</v>
       </c>
       <c r="H81">
-        <v>249.701115938577</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.80284383807501</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>45.01</v>
       </c>
@@ -3658,19 +3633,19 @@
         <v>16203600</v>
       </c>
       <c r="D82">
-        <v>34.024217613696301</v>
+        <v>29.9438503649206</v>
       </c>
       <c r="E82">
-        <v>249.62416849223899</v>
+        <v>249.669240228869</v>
       </c>
       <c r="G82">
-        <v>27.050729379715101</v>
+        <v>17.841728865075599</v>
       </c>
       <c r="H82">
-        <v>249.701197643272</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.80292026295601</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>45.019952623149699</v>
       </c>
@@ -3678,19 +3653,19 @@
         <v>16207182.9443339</v>
       </c>
       <c r="D83">
-        <v>33.334155750645103</v>
+        <v>29.5990168268664</v>
       </c>
       <c r="E83">
-        <v>249.63179091557799</v>
+        <v>249.67304926013</v>
       </c>
       <c r="G83">
-        <v>27.035135942601901</v>
+        <v>17.826991001364501</v>
       </c>
       <c r="H83">
-        <v>249.701369888378</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.80308305739899</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>45.039810717055403</v>
       </c>
@@ -3698,19 +3673,19 @@
         <v>16214331.8581399</v>
       </c>
       <c r="D84">
-        <v>32.644751862857802</v>
+        <v>29.254708577570099</v>
       </c>
       <c r="E84">
-        <v>249.639406070923</v>
+        <v>249.67685248905201</v>
       </c>
       <c r="G84">
-        <v>27.002356597758901</v>
+        <v>17.795723101075101</v>
       </c>
       <c r="H84">
-        <v>249.70173196902101</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.803428442626</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>45.079432823472402</v>
       </c>
@@ -3718,19 +3693,19 @@
         <v>16228595.8164501</v>
       </c>
       <c r="D85">
-        <v>31.956684969384099</v>
+        <v>28.911460029956299</v>
       </c>
       <c r="E85">
-        <v>249.64700645782801</v>
+        <v>249.68064401250899</v>
       </c>
       <c r="G85">
-        <v>26.933626939827601</v>
+        <v>17.729619405325099</v>
       </c>
       <c r="H85">
-        <v>249.70249115682299</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.80415862404899</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>45.158489319246101</v>
       </c>
@@ -3738,19 +3713,19 @@
         <v>16257056.1549286</v>
       </c>
       <c r="D86">
-        <v>31.271292105413799</v>
+        <v>28.5703271961609</v>
       </c>
       <c r="E86">
-        <v>249.654577307404</v>
+        <v>249.684412165791</v>
       </c>
       <c r="G86">
-        <v>26.789850820780899</v>
+        <v>17.590307503709798</v>
       </c>
       <c r="H86">
-        <v>249.70407930783401</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.805697463314</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>45.316227766016802</v>
       </c>
@@ -3758,19 +3733,19 @@
         <v>16313841.995766001</v>
       </c>
       <c r="D87">
-        <v>30.591215142804199</v>
+        <v>28.233398673540901</v>
       </c>
       <c r="E87">
-        <v>249.66208943753301</v>
+        <v>249.68813387825199</v>
       </c>
       <c r="G87">
-        <v>26.4897041900639</v>
+        <v>17.297530896675699</v>
       </c>
       <c r="H87">
-        <v>249.707394727517</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.80893147371501</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>45.630957344480201</v>
       </c>
@@ -3778,19 +3753,19 @@
         <v>16427144.6440129</v>
       </c>
       <c r="D88">
-        <v>29.921645858826601</v>
+        <v>27.904780465935701</v>
       </c>
       <c r="E88">
-        <v>249.66948549984301</v>
+        <v>249.69176379497301</v>
       </c>
       <c r="G88">
-        <v>25.864257604823401</v>
+        <v>16.683759994034599</v>
       </c>
       <c r="H88">
-        <v>249.714303410497</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.81571118710599</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>46.258925411794202</v>
       </c>
@@ -3798,19 +3773,19 @@
         <v>16653213.148245901</v>
       </c>
       <c r="D89">
-        <v>29.272646346979499</v>
+        <v>27.592433083236202</v>
       </c>
       <c r="E89">
-        <v>249.676654348451</v>
+        <v>249.69521398416299</v>
       </c>
       <c r="G89">
-        <v>24.562964316643701</v>
+        <v>15.399865282076499</v>
       </c>
       <c r="H89">
-        <v>249.72867749615801</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.829893088094</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>47.511886431509602</v>
       </c>
@@ -3818,19 +3793,19 @@
         <v>17104279.1153435</v>
       </c>
       <c r="D90">
-        <v>28.6631784093648</v>
+        <v>27.311366629809701</v>
       </c>
       <c r="E90">
-        <v>249.68338653129001</v>
+        <v>249.69831864420701</v>
       </c>
       <c r="G90">
-        <v>21.8587823969611</v>
+        <v>12.719190845600901</v>
       </c>
       <c r="H90">
-        <v>249.75854788964301</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.85950381791901</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>50.011872336272702</v>
       </c>
@@ -3838,19 +3813,19 @@
         <v>18004274.041058201</v>
       </c>
       <c r="D91">
-        <v>28.1270799969225</v>
+        <v>27.088396730831398</v>
       </c>
       <c r="E91">
-        <v>249.689308274354</v>
+        <v>249.70078156971101</v>
       </c>
       <c r="G91">
-        <v>16.2435378974683</v>
+        <v>7.1305305732683602</v>
       </c>
       <c r="H91">
-        <v>249.82057388038501</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.45">
+        <v>249.92123615928799</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>55</v>
       </c>
@@ -3858,19 +3833,19 @@
         <v>19800000</v>
       </c>
       <c r="D92">
-        <v>27.7188134568717</v>
+        <v>26.966774785489701</v>
       </c>
       <c r="E92">
-        <v>249.69381798655499</v>
+        <v>249.70212500571901</v>
       </c>
       <c r="G92">
-        <v>4.5855998985272199</v>
+        <v>-4.5080209741996597</v>
       </c>
       <c r="H92">
-        <v>249.94934746352101</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.45">
+        <v>250.049795599681</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>55.000214112736799</v>
       </c>
@@ -3878,19 +3853,19 @@
         <v>19800077.0805852</v>
       </c>
       <c r="D93">
-        <v>19.9830472142392</v>
+        <v>19.231016869354001</v>
       </c>
       <c r="E93">
-        <v>249.77926726047201</v>
+        <v>249.78757418766099</v>
       </c>
       <c r="G93">
-        <v>4.5852247589693302</v>
+        <v>-4.5083958097872401</v>
       </c>
       <c r="H93">
-        <v>249.949351607312</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.45">
+        <v>250.04979974011499</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>55.0004605779352</v>
       </c>
@@ -3898,19 +3873,19 @@
         <v>19800165.808056701</v>
       </c>
       <c r="D94">
-        <v>18.836666962247801</v>
+        <v>18.0846462017244</v>
       </c>
       <c r="E94">
-        <v>249.79193017673501</v>
+        <v>249.80023699805599</v>
       </c>
       <c r="G94">
-        <v>4.5848450758212698</v>
+        <v>-4.5087751430751704</v>
       </c>
       <c r="H94">
-        <v>249.949355801292</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.45">
+        <v>250.04980393023001</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>55.000990749254299</v>
       </c>
@@ -3918,19 +3893,19 @@
         <v>19800356.669731501</v>
       </c>
       <c r="D95">
-        <v>17.688882825834099</v>
+        <v>16.936882681253898</v>
       </c>
       <c r="E95">
-        <v>249.80460860030601</v>
+        <v>249.812915193903</v>
       </c>
       <c r="G95">
-        <v>4.5840891597930602</v>
+        <v>-4.5095303066646801</v>
       </c>
       <c r="H95">
-        <v>249.949364151141</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.45">
+        <v>250.049812271767</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>55.002131200845703</v>
       </c>
@@ -3938,19 +3913,19 @@
         <v>19800767.232304499</v>
       </c>
       <c r="D96">
-        <v>16.540423232599</v>
+        <v>15.788467430450201</v>
       </c>
       <c r="E96">
-        <v>249.81729448497299</v>
+        <v>249.825600588763</v>
       </c>
       <c r="G96">
-        <v>4.5825940381483496</v>
+        <v>-4.5110238104118796</v>
       </c>
       <c r="H96">
-        <v>249.949380666255</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.45">
+        <v>250.04982876900999</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>55.004584426407398</v>
       </c>
@@ -3958,19 +3933,19 @@
         <v>19801650.393506698</v>
       </c>
       <c r="D97">
-        <v>15.391601740771</v>
+        <v>14.6397413026913</v>
       </c>
       <c r="E97">
-        <v>249.82998436717099</v>
+        <v>249.83828941757</v>
       </c>
       <c r="G97">
-        <v>4.5796595972343503</v>
+        <v>-4.5139547741818804</v>
       </c>
       <c r="H97">
-        <v>249.94941308008899</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.45">
+        <v>250.04986114443599</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>55.009861560222198</v>
       </c>
@@ -3978,19 +3953,19 @@
         <v>19803550.161680002</v>
       </c>
       <c r="D98">
-        <v>14.242509363798799</v>
+        <v>13.490853966542399</v>
       </c>
       <c r="E98">
-        <v>249.842677241567</v>
+        <v>249.850980027086</v>
       </c>
       <c r="G98">
-        <v>4.5739532744542499</v>
+        <v>-4.5196536316857099</v>
       </c>
       <c r="H98">
-        <v>249.94947611212999</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.45">
+        <v>250.04992409401601</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>55.0212132034356</v>
       </c>
@@ -3998,19 +3973,19 @@
         <v>19807636.7532368</v>
       </c>
       <c r="D99">
-        <v>13.0930708976849</v>
+        <v>12.341856116271</v>
       </c>
       <c r="E99">
-        <v>249.85537393886401</v>
+        <v>249.86367185733999</v>
       </c>
       <c r="G99">
-        <v>4.5629812797810603</v>
+        <v>-4.5306096344030697</v>
       </c>
       <c r="H99">
-        <v>249.94959730878401</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.45">
+        <v>250.050045114022</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>55.045631724581</v>
       </c>
@@ -4018,19 +3993,19 @@
         <v>19816427.4208492</v>
       </c>
       <c r="D100">
-        <v>11.9430006725529</v>
+        <v>11.1927316351293</v>
       </c>
       <c r="E100">
-        <v>249.86807761457101</v>
+        <v>249.87636508635799</v>
       </c>
       <c r="G100">
-        <v>4.5421789340247098</v>
+        <v>-4.5513778873283197</v>
       </c>
       <c r="H100">
-        <v>249.949827091495</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.45">
+        <v>250.05027452014301</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>55.098158408491201</v>
       </c>
@@ -4038,19 +4013,19 @@
         <v>19835337.027056798</v>
       </c>
       <c r="D101">
-        <v>10.7916362937752</v>
+        <v>10.043392150095</v>
       </c>
       <c r="E101">
-        <v>249.88079558549899</v>
+        <v>249.88906069031</v>
       </c>
       <c r="G101">
-        <v>4.5034383444491803</v>
+        <v>-4.5900465554959302</v>
       </c>
       <c r="H101">
-        <v>249.950255020047</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.45">
+        <v>250.05070165425201</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>55.2111485648634</v>
       </c>
@@ -4058,19 +4033,19 @@
         <v>19876013.483350798</v>
       </c>
       <c r="D102">
-        <v>9.63757471929652</v>
+        <v>8.8936429525553997</v>
       </c>
       <c r="E102">
-        <v>249.893543349651</v>
+        <v>249.90176081994599</v>
       </c>
       <c r="G102">
-        <v>4.4329580433224898</v>
+        <v>-4.66037862793796</v>
       </c>
       <c r="H102">
-        <v>249.95103354545299</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.45">
+        <v>250.05147854232399</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>55.4542017044608</v>
       </c>
@@ -4078,19 +4053,19 @@
         <v>19963512.613605902</v>
       </c>
       <c r="D103">
-        <v>8.4780038163616904</v>
+        <v>7.7431531976804298</v>
       </c>
       <c r="E103">
-        <v>249.906351969844</v>
+        <v>249.91446912977801</v>
       </c>
       <c r="G103">
-        <v>4.3086908507853199</v>
+        <v>-4.7843562843126302</v>
       </c>
       <c r="H103">
-        <v>249.95240620086199</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.45">
+        <v>250.05284799951701</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>55.977033343648898</v>
       </c>
@@ -4098,19 +4073,19 @@
         <v>20151732.0037136</v>
       </c>
       <c r="D104">
-        <v>7.3078001802934098</v>
+        <v>6.5916318121835404</v>
       </c>
       <c r="E104">
-        <v>249.919278039208</v>
+        <v>249.92718883500299</v>
       </c>
       <c r="G104">
-        <v>4.0988223761972797</v>
+        <v>-4.9937312403102299</v>
       </c>
       <c r="H104">
-        <v>249.954724408033</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.45">
+        <v>250.05516075528001</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>57.1016965485301</v>
       </c>
@@ -4118,19 +4093,19 @@
         <v>20556610.757470801</v>
       </c>
       <c r="D105">
-        <v>6.1195714359992799</v>
+        <v>5.4400897737616098</v>
       </c>
       <c r="E105">
-        <v>249.93240321391801</v>
+        <v>249.939908768359</v>
       </c>
       <c r="G105">
-        <v>3.7650545029525202</v>
+        <v>-5.3269788633548796</v>
       </c>
       <c r="H105">
-        <v>249.95841120796001</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.45">
+        <v>250.05884180852499</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>59.520959710143202</v>
       </c>
@@ -4138,19 +4113,19 @@
         <v>21427545.495651599</v>
       </c>
       <c r="D106">
-        <v>4.90927648201927</v>
+        <v>4.2958750461746797</v>
       </c>
       <c r="E106">
-        <v>249.94577213197999</v>
+        <v>249.95254776423999</v>
       </c>
       <c r="G106">
-        <v>3.27687744912595</v>
+        <v>-5.8160826938547698</v>
       </c>
       <c r="H106">
-        <v>249.96380361169699</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.45">
+        <v>250.06424444943599</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>64.725037001670202</v>
       </c>
@@ -4158,19 +4133,19 @@
         <v>23301013.320601299</v>
       </c>
       <c r="D107">
-        <v>3.6957722921248202</v>
+        <v>3.1855560149130802</v>
       </c>
       <c r="E107">
-        <v>249.95917649926099</v>
+        <v>249.96481234825899</v>
       </c>
       <c r="G107">
-        <v>2.6395995626044302</v>
+        <v>-6.4617456801306297</v>
       </c>
       <c r="H107">
-        <v>249.97084298323099</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.45">
+        <v>250.07137644278299</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>75.919528318658607</v>
       </c>
@@ -4178,19 +4153,19 @@
         <v>27331030.194717102</v>
       </c>
       <c r="D108">
-        <v>2.5492937777665601</v>
+        <v>2.1707704029754602</v>
       </c>
       <c r="E108">
-        <v>249.97184050093099</v>
+        <v>249.976021670129</v>
       </c>
       <c r="G108">
-        <v>1.9214828881666599</v>
+        <v>-7.2120916436565299</v>
       </c>
       <c r="H108">
-        <v>249.97877530001699</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.45">
+        <v>250.07966476429601</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>100</v>
       </c>
@@ -4198,16 +4173,16 @@
         <v>36000000</v>
       </c>
       <c r="D109">
-        <v>1.58487749689653</v>
+        <v>1.3386392568027401</v>
       </c>
       <c r="E109">
-        <v>249.98249344316901</v>
+        <v>249.98521339076899</v>
       </c>
       <c r="G109">
-        <v>1.2443087929004</v>
+        <v>-7.9737243948794996</v>
       </c>
       <c r="H109">
-        <v>249.98625536507399</v>
+        <v>250.08807775966599</v>
       </c>
     </row>
   </sheetData>
@@ -4215,36 +4190,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FAD52-AD5F-4E73-893F-349A7B25D1B0}">
-  <sheetPr codeName="Лист2"/>
-  <dimension ref="C5:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C5">
-        <v>0.1</v>
-      </c>
-      <c r="D5">
-        <f>_xlfn.GAMMA(C5)</f>
-        <v>9.5135076986687324</v>
-      </c>
-      <c r="E5" cm="1">
-        <f t="array" ref="E5">[1]!_xludf.Gamma(C5)</f>
-        <v>9.5135076986687324</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>